--- a/Figures/Table S1.xlsx
+++ b/Figures/Table S1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/North_garden/KSR_North/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFC915D-194A-C245-BB6A-3944C4CF93B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972997C5-1263-C14C-9AA9-318C212626EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{76C54077-5530-7F4A-B050-BC75450D6413}"/>
   </bookViews>
@@ -843,45 +843,7 @@
   </si>
   <si>
     <r>
-      <t>Seeds = Flowering Date + Bolt Date + Growth Rate + Trichome Number + Fruit Total Phenolics + Flowering Date</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  + Bolt Date</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  + Growth Rate</t>
+      <t>Seeds = Flowering Date + Bolt Date  + Trichome Number + Water Content + Fruit Total Phenolics + Flowering Date</t>
     </r>
     <r>
       <rPr>
@@ -917,7 +879,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve"> + Flower Total Phenolics</t>
+      <t xml:space="preserve"> + Water Content</t>
     </r>
     <r>
       <rPr>
@@ -1358,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FA75B6-4243-9541-8047-7EBEE83788A1}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
